--- a/DUAl-STRIDE (1).xlsx
+++ b/DUAl-STRIDE (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/software security and block chain/progetto/swsb-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD14533B-4DD1-4C58-9444-71DFDA2A2545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EAFCF0-9600-D54A-A3CD-B20BF95E7383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy Objectives" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
   <si>
     <t>Asset</t>
   </si>
@@ -369,9 +369,6 @@
     <t>Sustained Client Engagement (227)</t>
   </si>
   <si>
-    <t>Flooding(125)</t>
-  </si>
-  <si>
     <t>10.000-20.000</t>
   </si>
   <si>
@@ -411,9 +408,6 @@
     <t>80.000-150.000</t>
   </si>
   <si>
-    <t>50.000-150.000</t>
-  </si>
-  <si>
     <t>25.000-50.000</t>
   </si>
   <si>
@@ -453,9 +447,6 @@
     <t>10.500-21.000</t>
   </si>
   <si>
-    <t>11.500-34.500</t>
-  </si>
-  <si>
     <t>18.400-34.500</t>
   </si>
   <si>
@@ -463,13 +454,16 @@
   </si>
   <si>
     <t>15.000-22.500</t>
+  </si>
+  <si>
+    <t>Flooding (125)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -639,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -692,10 +686,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -719,24 +734,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -746,19 +749,7 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -826,7 +817,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -878,7 +869,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1086,94 +1077,94 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="3" customWidth="1"/>
     <col min="3" max="7" width="6.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.59765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="3" customWidth="1"/>
     <col min="9" max="11" width="6.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.8984375" style="3"/>
+    <col min="12" max="12" width="10.83203125" style="3"/>
     <col min="13" max="13" width="20" style="3" customWidth="1"/>
     <col min="14" max="15" width="10" style="3" customWidth="1"/>
     <col min="16" max="16" width="20" style="3" customWidth="1"/>
     <col min="17" max="17" width="10" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10.8984375" style="3"/>
+    <col min="18" max="18" width="10.83203125" style="3"/>
     <col min="19" max="21" width="10" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="10.8984375" style="3"/>
+    <col min="22" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="10" customFormat="1" ht="21">
+    <row r="1" spans="1:21" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-    </row>
-    <row r="2" spans="1:21" s="10" customFormat="1" ht="21">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:21" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="23" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-    </row>
-    <row r="3" spans="1:21" s="10" customFormat="1" ht="21">
+      <c r="H2" s="31"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+    </row>
+    <row r="3" spans="1:21" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="23" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
@@ -1186,281 +1177,290 @@
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
     </row>
-    <row r="5" spans="1:21" ht="21">
+    <row r="5" spans="1:21" ht="22" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="30" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="27"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="C6" s="24"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="C7" s="24"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="C8" s="24"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="C10" s="24"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="C11" s="24"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="C14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="C15" s="24"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="C16" s="24"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="19"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="C17" s="24"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="C18" s="24"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="19"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="C19" s="24"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="19"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="C20" s="24"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="19"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="C21" s="24"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="19"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="C22" s="24"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="19"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="C23" s="24"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="19"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="C24" s="24"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="19"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:U2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="C24:H24"/>
@@ -1477,28 +1477,19 @@
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:U2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1506,101 +1497,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
-    <col min="3" max="11" width="6.8984375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.8984375" style="2" customWidth="1"/>
+    <col min="3" max="11" width="6.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="33" style="3" customWidth="1"/>
     <col min="14" max="15" width="10" style="3" customWidth="1"/>
     <col min="16" max="16" width="20" style="3" customWidth="1"/>
     <col min="17" max="17" width="10" style="3" customWidth="1"/>
     <col min="18" max="18" width="20" style="3" customWidth="1"/>
     <col min="19" max="21" width="10" style="3" customWidth="1"/>
-    <col min="22" max="22" width="68.3984375" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="10.8984375" style="3"/>
+    <col min="22" max="22" width="68.33203125" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="21">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-    </row>
-    <row r="2" spans="1:22" s="10" customFormat="1" ht="24.9" customHeight="1">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="10" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="23" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-    </row>
-    <row r="3" spans="1:22" s="10" customFormat="1" ht="21">
+      <c r="H2" s="31"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+    </row>
+    <row r="3" spans="1:22" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="23" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
@@ -1613,7 +1604,7 @@
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
     </row>
-    <row r="4" spans="1:22" ht="155.4">
+    <row r="4" spans="1:22" ht="156" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1681,12 +1672,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>60</v>
+      <c r="B5" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>37</v>
@@ -1704,16 +1695,16 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="36">
+      <c r="N5" s="19">
         <v>0.15</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -1722,9 +1713,9 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
     </row>
-    <row r="6" spans="1:22" s="16" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
+    <row r="6" spans="1:22" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="15" t="s">
         <v>37</v>
       </c>
@@ -1737,16 +1728,16 @@
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N6" s="19">
         <v>0.18</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
@@ -1758,9 +1749,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="16" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
+    <row r="7" spans="1:22" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -1773,16 +1764,16 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="36">
+      <c r="N7" s="19">
         <v>0.08</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -1794,9 +1785,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="16" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
+    <row r="8" spans="1:22" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="15" t="s">
         <v>37</v>
       </c>
@@ -1815,16 +1806,16 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="36">
+      <c r="N8" s="19">
         <v>0.12</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -1836,12 +1827,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="16" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:22" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>61</v>
+      <c r="B9" s="37" t="s">
+        <v>60</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>37</v>
@@ -1859,14 +1850,14 @@
       <c r="L9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="19">
         <v>0.12</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
@@ -1878,9 +1869,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="16" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="35"/>
+    <row r="10" spans="1:22" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="36"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -1895,10 +1886,10 @@
       <c r="L10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="38" t="s">
+      <c r="M10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="36">
+      <c r="N10" s="19">
         <v>0.1</v>
       </c>
       <c r="O10" s="15" t="s">
@@ -1912,12 +1903,12 @@
       <c r="U10" s="15"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:22" ht="40.5" customHeight="1">
+    <row r="11" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>37</v>
@@ -1933,16 +1924,16 @@
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="19">
         <v>0.15</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
@@ -1951,8 +1942,8 @@
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
     </row>
-    <row r="12" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -1972,16 +1963,16 @@
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="N12" s="36">
+      <c r="N12" s="19">
         <v>0.15</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
@@ -1990,12 +1981,12 @@
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
     </row>
-    <row r="13" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>63</v>
+      <c r="B13" s="35" t="s">
+        <v>62</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>37</v>
@@ -2011,16 +2002,16 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="N13" s="36">
+      <c r="N13" s="19">
         <v>0.15</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
@@ -2029,9 +2020,9 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
     </row>
-    <row r="14" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
+    <row r="14" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -2046,14 +2037,14 @@
       <c r="L14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="37" t="s">
+      <c r="M14" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="36">
+      <c r="N14" s="19">
         <v>0.2</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
@@ -2062,12 +2053,12 @@
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
     </row>
-    <row r="15" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A15" s="32" t="s">
+    <row r="15" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>63</v>
+      <c r="B15" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>37</v>
@@ -2083,16 +2074,16 @@
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15" s="19">
         <v>0.15</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
@@ -2101,9 +2092,9 @@
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
     </row>
-    <row r="16" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
+    <row r="16" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -2116,16 +2107,16 @@
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="M16" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="36">
+      <c r="N16" s="19">
         <v>0.2</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
@@ -2134,12 +2125,12 @@
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
     </row>
-    <row r="17" spans="1:21" ht="40.5" customHeight="1">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>60</v>
+      <c r="B17" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
@@ -2157,16 +2148,16 @@
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="N17" s="36">
+      <c r="N17" s="19">
         <v>0.21</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
@@ -2175,31 +2166,39 @@
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
     </row>
-    <row r="18" spans="1:21" ht="40.5" customHeight="1">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
+    <row r="18" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>63</v>
+      </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="F18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="J18" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="M18" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="N18" s="36">
-        <v>0.23</v>
+        <v>62</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="19">
+        <v>0.21</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
@@ -2208,39 +2207,31 @@
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
     </row>
-    <row r="19" spans="1:21" ht="40.5" customHeight="1">
-      <c r="A19" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>64</v>
-      </c>
+    <row r="19" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="D19" s="15"/>
       <c r="E19" s="15"/>
-      <c r="F19" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="M19" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="N19" s="36">
-        <v>0.21</v>
+        <v>68</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="N19" s="19">
+        <v>0.23</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
@@ -2249,9 +2240,9 @@
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
     </row>
-    <row r="20" spans="1:21" ht="40.5" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
+    <row r="20" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -2264,16 +2255,16 @@
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="N20" s="36">
-        <v>0.23</v>
+        <v>68</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="N20" s="19">
+        <v>0.18</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
@@ -2282,31 +2273,37 @@
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
     </row>
-    <row r="21" spans="1:21" ht="40.5" customHeight="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+    <row r="21" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="M21" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="N21" s="36">
-        <v>0.18</v>
+        <v>67</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="19">
+        <v>0.15</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
@@ -2315,12 +2312,12 @@
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
     </row>
-    <row r="22" spans="1:21" ht="40.5" customHeight="1">
+    <row r="22" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>37</v>
@@ -2336,16 +2333,16 @@
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="M22" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="N22" s="36">
+      <c r="N22" s="19">
         <v>0.15</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
@@ -2354,60 +2351,11 @@
       <c r="T22" s="15"/>
       <c r="U22" s="15"/>
     </row>
-    <row r="23" spans="1:21" ht="40.5" customHeight="1">
-      <c r="A23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="M23" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="N23" s="36">
-        <v>0.15</v>
-      </c>
-      <c r="O23" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M32:M35">
-    <sortCondition ref="M32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M31:M34">
+    <sortCondition ref="M31"/>
   </sortState>
-  <mergeCells count="21">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
+  <mergeCells count="19">
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="I2:U2"/>
@@ -2419,6 +2367,14 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DUAl-STRIDE (1).xlsx
+++ b/DUAl-STRIDE (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/software security and block chain/progetto/swsb-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EAFCF0-9600-D54A-A3CD-B20BF95E7383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405D3A73-FA02-5F4B-8677-16AE9B7EDAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1499,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
